--- a/doc/harmonogram.xlsx
+++ b/doc/harmonogram.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcin\Source\Repos\thesis\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11325" windowHeight="4755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11325" windowHeight="4755" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="jezyk" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="65">
   <si>
     <t>tabela Strona</t>
   </si>
@@ -224,6 +224,9 @@
   </si>
   <si>
     <t>testy funkcjonalne</t>
+  </si>
+  <si>
+    <t>czy istnieje możliwość zapisania ucznia na przedmiot, np. Uczeń zgłasza chęć dołączenia do przedmiotu a nauczyciel odpowiedzialny akceptuje</t>
   </si>
 </sst>
 </file>
@@ -653,7 +656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -1037,10 +1040,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1048,6 +1051,11 @@
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1085,7 +1093,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="O2" sqref="A2:O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/doc/harmonogram.xlsx
+++ b/doc/harmonogram.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcin\Source\Repos\thesis\doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11325" windowHeight="4755" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11325" windowHeight="4755" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="jezyk" sheetId="1" r:id="rId1"/>
@@ -21,8 +16,9 @@
     <sheet name="pytania" sheetId="6" r:id="rId7"/>
     <sheet name="kafelki" sheetId="7" r:id="rId8"/>
     <sheet name="uprawnienia" sheetId="8" r:id="rId9"/>
+    <sheet name="wykres Gantta" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="81">
   <si>
     <t>tabela Strona</t>
   </si>
@@ -227,13 +223,61 @@
   </si>
   <si>
     <t>czy istnieje możliwość zapisania ucznia na przedmiot, np. Uczeń zgłasza chęć dołączenia do przedmiotu a nauczyciel odpowiedzialny akceptuje</t>
+  </si>
+  <si>
+    <t>Cele etapowe:</t>
+  </si>
+  <si>
+    <t>analiza techniczna -&gt; dokumentacja techniczna</t>
+  </si>
+  <si>
+    <t>Moduł stron statycznych</t>
+  </si>
+  <si>
+    <t>Moduł dydaktyki</t>
+  </si>
+  <si>
+    <t>Moduł administratora</t>
+  </si>
+  <si>
+    <t>iteracyjna implementacja + testy jednostkowe i funkcjonalne</t>
+  </si>
+  <si>
+    <t>start:</t>
+  </si>
+  <si>
+    <t>cały projekt</t>
+  </si>
+  <si>
+    <t>czas trwania:</t>
+  </si>
+  <si>
+    <t>koniec:</t>
+  </si>
+  <si>
+    <t>data rozpoczęcia</t>
+  </si>
+  <si>
+    <t>czas trwania</t>
+  </si>
+  <si>
+    <t>data zakończenia</t>
+  </si>
+  <si>
+    <t>Moduł rejestracji i logowania + integracja z forum</t>
+  </si>
+  <si>
+    <t>dni na poprawki</t>
+  </si>
+  <si>
+    <t>Baza danych zintegrowana z forum</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,6 +290,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -266,11 +318,69 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -279,15 +389,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -300,6 +420,288 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'wykres Gantta'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>data rozpoczęcia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'wykres Gantta'!$B$2:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>analiza biznesowa</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>analiza techniczna -&gt; dokumentacja techniczna</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Baza danych zintegrowana z forum</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Moduł rejestracji i logowania + integracja z forum</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Moduł stron statycznych</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Moduł dydaktyki</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Moduł administratora</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'wykres Gantta'!$F$2:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>42282</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42296</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42303</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42317</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42331</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42345</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42359</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'wykres Gantta'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>czas trwania</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'wykres Gantta'!$B$2:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>analiza biznesowa</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>analiza techniczna -&gt; dokumentacja techniczna</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Baza danych zintegrowana z forum</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Moduł rejestracji i logowania + integracja z forum</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Moduł stron statycznych</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Moduł dydaktyki</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Moduł administratora</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'wykres Gantta'!$G$2:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="35"/>
+        <c:overlap val="100"/>
+        <c:axId val="59203072"/>
+        <c:axId val="487387648"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="59203072"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="487387648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="487387648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="42380"/>
+          <c:min val="42280"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="59203072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Wykres 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -557,7 +959,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -652,12 +1054,226 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="4">
+        <f>B13</f>
+        <v>42282</v>
+      </c>
+      <c r="G2" s="5">
+        <v>14</v>
+      </c>
+      <c r="H2" s="4">
+        <f>F2+G2</f>
+        <v>42296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="10">
+        <f>H2</f>
+        <v>42296</v>
+      </c>
+      <c r="G3" s="11">
+        <v>7</v>
+      </c>
+      <c r="H3" s="10">
+        <f t="shared" ref="H3:H8" si="0">F3+G3</f>
+        <v>42303</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="12">
+        <f>H3</f>
+        <v>42303</v>
+      </c>
+      <c r="G4" s="13">
+        <v>14</v>
+      </c>
+      <c r="H4" s="12">
+        <f t="shared" si="0"/>
+        <v>42317</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" ref="F5:F7" si="1">H4</f>
+        <v>42317</v>
+      </c>
+      <c r="G5" s="5">
+        <v>14</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" si="0"/>
+        <v>42331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="1"/>
+        <v>42331</v>
+      </c>
+      <c r="G6" s="5">
+        <v>14</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="0"/>
+        <v>42345</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="1"/>
+        <v>42345</v>
+      </c>
+      <c r="G7" s="5">
+        <v>14</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="0"/>
+        <v>42359</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="4">
+        <f>H7</f>
+        <v>42359</v>
+      </c>
+      <c r="G8" s="5">
+        <v>14</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="0"/>
+        <v>42373</v>
+      </c>
+      <c r="I8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H9" s="9">
+        <f>H8-F2</f>
+        <v>91</v>
+      </c>
+      <c r="I9">
+        <f>B15-H9</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="7">
+        <f>H3</f>
+        <v>42303</v>
+      </c>
+      <c r="G10" s="8">
+        <f ca="1">SUM(G4:G99)</f>
+        <v>70</v>
+      </c>
+      <c r="H10" s="7">
+        <f ca="1">F10+G10</f>
+        <v>42373</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="3">
+        <v>42282</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="3">
+        <v>42382</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="6">
+        <f>DAYS360(B13,B14)</f>
+        <v>98</v>
+      </c>
+      <c r="C15">
+        <f>B15/14</f>
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1042,7 +1658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -1093,7 +1709,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="A2:O2"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/doc/harmonogram.xlsx
+++ b/doc/harmonogram.xlsx
@@ -1,20 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcin\Source\Repos\thesis\doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26970" windowHeight="1665"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26970" windowHeight="1665" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="wykres Gantta" sheetId="10" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>kto</t>
   </si>
@@ -101,15 +97,9 @@
     <t>dal</t>
   </si>
   <si>
-    <t>Stworzenie warstwy dostępu do danych. EntityFramework Database First</t>
-  </si>
-  <si>
     <t>Moduł użytkownika + integracja z forum</t>
   </si>
   <si>
-    <t>Metody w warstwie serwisowej służące do obsługi użytkowników.</t>
-  </si>
-  <si>
     <t>SSO</t>
   </si>
   <si>
@@ -143,9 +133,6 @@
     <t>integracja z tinyMCE, asynchroniczne wykorzystanie javascriptu</t>
   </si>
   <si>
-    <t>Moduł administracyjny</t>
-  </si>
-  <si>
     <t>layout</t>
   </si>
   <si>
@@ -155,7 +142,22 @@
     <t>warstwa serwisowa</t>
   </si>
   <si>
-    <t>UserController i usercontext</t>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>bb</t>
+  </si>
+  <si>
+    <t>ccc</t>
+  </si>
+  <si>
+    <t>Stworzenie warstwy dostępu do danych</t>
+  </si>
+  <si>
+    <t>czas</t>
+  </si>
+  <si>
+    <t>start</t>
   </si>
 </sst>
 </file>
@@ -291,7 +293,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -334,7 +336,7 @@
             <c:strRef>
               <c:f>'wykres Gantta'!$B$2:$B$17</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>analiza biznesowa</c:v>
                 </c:pt>
@@ -345,15 +347,24 @@
                   <c:v>Baza danych</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>aaa</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>bb</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ccc</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Moduł użytkownika + integracja z forum</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>Moduł administratora</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>Moduł stron informacyjnych</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>Moduł dydaktyki</c:v>
                 </c:pt>
               </c:strCache>
@@ -374,16 +385,16 @@
                 <c:pt idx="2">
                   <c:v>42317</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>42331</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>42345</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>42359</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>42373</c:v>
                 </c:pt>
               </c:numCache>
@@ -409,7 +420,7 @@
             <c:strRef>
               <c:f>'wykres Gantta'!$B$2:$B$17</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>analiza biznesowa</c:v>
                 </c:pt>
@@ -420,15 +431,24 @@
                   <c:v>Baza danych</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>aaa</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>bb</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ccc</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Moduł użytkownika + integracja z forum</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>Moduł administratora</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>Moduł stron informacyjnych</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>Moduł dydaktyki</c:v>
                 </c:pt>
               </c:strCache>
@@ -449,16 +469,16 @@
                 <c:pt idx="2">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
@@ -475,11 +495,11 @@
         </c:dLbls>
         <c:gapWidth val="35"/>
         <c:overlap val="100"/>
-        <c:axId val="-237563648"/>
-        <c:axId val="-237570176"/>
+        <c:axId val="183137792"/>
+        <c:axId val="183139328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-237563648"/>
+        <c:axId val="183137792"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -489,7 +509,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-237570176"/>
+        <c:crossAx val="183139328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -497,7 +517,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-237570176"/>
+        <c:axId val="183139328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="42380"/>
@@ -510,7 +530,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-237563648"/>
+        <c:crossAx val="183137792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -541,15 +561,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>419101</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -826,7 +846,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -834,10 +854,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -848,9 +868,14 @@
     <col min="7" max="7" width="9" customWidth="1"/>
     <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.85546875" customWidth="1"/>
+    <col min="11" max="11" width="61" customWidth="1"/>
+    <col min="12" max="12" width="74" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -867,10 +892,16 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -885,15 +916,9 @@
         <f>F2+G2</f>
         <v>42303</v>
       </c>
-      <c r="J2" s="3" t="str">
-        <f>B4</f>
-        <v>Baza danych</v>
-      </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>16</v>
       </c>
@@ -909,17 +934,8 @@
         <v>42317</v>
       </c>
       <c r="J3" s="3"/>
-      <c r="K3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>23</v>
       </c>
@@ -935,197 +951,119 @@
         <v>42331</v>
       </c>
       <c r="J4" s="3"/>
-      <c r="K4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="3"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="2">
-        <f t="shared" ref="F5:F7" si="1">H4</f>
+        <v>40</v>
+      </c>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="2">
+        <f>H4</f>
         <v>42331</v>
-      </c>
-      <c r="G5" s="3">
-        <v>14</v>
-      </c>
-      <c r="H5" s="2">
-        <f t="shared" si="0"/>
-        <v>42345</v>
-      </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="2">
-        <f t="shared" si="1"/>
-        <v>42345</v>
-      </c>
-      <c r="G6" s="3">
-        <v>14</v>
-      </c>
-      <c r="H6" s="2">
-        <f t="shared" si="0"/>
-        <v>42359</v>
-      </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="2">
-        <f t="shared" si="1"/>
-        <v>42359</v>
-      </c>
-      <c r="G7" s="3">
-        <v>14</v>
-      </c>
-      <c r="H7" s="2">
-        <f t="shared" si="0"/>
-        <v>42373</v>
-      </c>
-      <c r="J7" s="3" t="str">
-        <f>B5</f>
-        <v>Moduł użytkownika + integracja z forum</v>
-      </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="2">
-        <f>H7</f>
-        <v>42373</v>
       </c>
       <c r="G8" s="3">
         <v>14</v>
       </c>
       <c r="H8" s="2">
-        <f t="shared" si="0"/>
+        <f>F8+G8</f>
+        <v>42345</v>
+      </c>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="2">
+        <f>H8</f>
+        <v>42345</v>
+      </c>
+      <c r="G9" s="3">
+        <v>14</v>
+      </c>
+      <c r="H9" s="2">
+        <f>F9+G9</f>
+        <v>42359</v>
+      </c>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="2">
+        <f>H9</f>
+        <v>42359</v>
+      </c>
+      <c r="G10" s="3">
+        <v>14</v>
+      </c>
+      <c r="H10" s="2">
+        <f>F10+G10</f>
+        <v>42373</v>
+      </c>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="2">
+        <f>H10</f>
+        <v>42373</v>
+      </c>
+      <c r="G11" s="3">
+        <v>14</v>
+      </c>
+      <c r="H11" s="2">
+        <f>F11+G11</f>
         <v>42387</v>
       </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J9" s="3"/>
-      <c r="K9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J10" s="3"/>
-      <c r="K10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J11" s="3"/>
-      <c r="K11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J13" s="3"/>
-      <c r="K13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J14" s="3"/>
-      <c r="K14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H17" s="7">
-        <f>H8-F2</f>
+        <f>H11-F2</f>
         <v>105</v>
       </c>
       <c r="I17" t="s">
         <v>15</v>
       </c>
       <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1145,34 +1083,18 @@
         <f>B23-H17</f>
         <v>-7</v>
       </c>
-      <c r="J18" s="3" t="str">
-        <f>B7</f>
-        <v>Moduł stron informacyjnych</v>
-      </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J19" s="3"/>
-      <c r="K19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
       <c r="J20" s="3"/>
-      <c r="K20" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -1180,13 +1102,8 @@
         <v>42282</v>
       </c>
       <c r="J21" s="3"/>
-      <c r="K21" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -1194,11 +1111,8 @@
         <v>42382</v>
       </c>
       <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1211,79 +1125,323 @@
         <v>7</v>
       </c>
       <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>